--- a/biology/Zoologie/Eukoenenia_juberthiei/Eukoenenia_juberthiei.xlsx
+++ b/biology/Zoologie/Eukoenenia_juberthiei/Eukoenenia_juberthiei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eukoenenia juberthiei est une espèce de palpigrades de la famille des Eukoeneniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans des grottes en Grèce et au Liban[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans des grottes en Grèce et au Liban.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Palpigrades of the World (version 1.0)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Palpigrades of the World (version 1.0) :
 Eukoenenia juberthiei cytheriaca Condé, 1979 de Cythère en Grèce
 Eukoenenia juberthiei hellenica Condé, 1979 de Keratea en Attique en Grèce
 Eukoenenia juberthiei juberthiei Condé, 1974 du Liban</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Christian Juberthie[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Christian Juberthie.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Condé, 1974 : Un palpigrade cavernicole du Liban (Eukoenenia juberthiei n. sp.). Annales de spéléologie, vol. 29, no 1, p. 57-62.
 Condé, 1979 : Palpigrades de Grèce, de Guyane et du Kenya. Revue Suisse de Zoologie, vol. 86, no 1, p. 167-179 (texte original).</t>
